--- a/biology/Botanique/Holcoglossum_phongii/Holcoglossum_phongii.xlsx
+++ b/biology/Botanique/Holcoglossum_phongii/Holcoglossum_phongii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Holcoglossum phongii ( Aver. ) Aver. &amp; O.Gruss est une espèce de plantes à fleurs de la famille des Orchidaceae. C'est une orchidée épiphytes du sud du Viet Nam.
-L'épithète spécifique phongii est dédié à son découvreur et premier récolteur Nguyen Phong[2]. Elle a été renommée Holcoglossum phongii en 2016[3].
-L'espèce a été décrite dans un premier temps en 2014 par Leonid Vladimirovich Averyanov sous le basionyme de Aerides phongii Aver[4],[5]. Son nom scientifique reste encore non résolu.
+L'épithète spécifique phongii est dédié à son découvreur et premier récolteur Nguyen Phong. Elle a été renommée Holcoglossum phongii en 2016.
+L'espèce a été décrite dans un premier temps en 2014 par Leonid Vladimirovich Averyanov sous le basionyme de Aerides phongii Aver,. Son nom scientifique reste encore non résolu.
 </t>
         </is>
       </c>
